--- a/tablaDinamica.xlsx
+++ b/tablaDinamica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A8F993-FBAA-4695-B731-653F1D2F9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E44377C-B163-443F-A49D-D0B3DD180BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{13C632CA-D64C-44A6-8011-B21A4EA36921}"/>
   </bookViews>
@@ -26,12 +26,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="129" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="59" r:id="rId5"/>
+        <pivotCache cacheId="2" r:id="rId5"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FECHA</t>
   </si>
@@ -166,15 +166,6 @@
   </si>
   <si>
     <t>Total general</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
   </si>
   <si>
     <t>2016</t>
@@ -276,6 +267,1556 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[tablaDinamica.xlsx]tablaDinamica!TablaDinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15070683411409017"/>
+          <c:y val="5.2609939757476465E-2"/>
+          <c:w val="0.81553789162430645"/>
+          <c:h val="0.76022553922599179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tablaDinamica!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tablaDinamica!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tablaDinamica!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>850885.52613333345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>843624.75480000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>823276.20933333319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775618.76033333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364160.6969333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>502844.63913333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF10-4B15-BBE3-0C1612E5EFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tablaDinamica!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tablaDinamica!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tablaDinamica!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150262.44333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208063.28666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478901.16000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410629.00666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256833.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225626.84333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF10-4B15-BBE3-0C1612E5EFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="314487007"/>
+        <c:axId val="314496991"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tablaDinamica!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>tablaDinamica!$A$5:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tablaDinamica!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41289.980000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59700.659999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118537.10666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116138.60333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81552.706666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91362.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF10-4B15-BBE3-0C1612E5EFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="314487007"/>
+        <c:axId val="314496991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314487007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314496991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314496991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314487007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -291,8 +1832,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="FECHA (año)">
@@ -315,7 +1856,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -356,6 +1897,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1495424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE80252-C51D-442A-AF86-1C392364C638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -377,17 +1954,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Centor" refreshedDate="44636.322970486108" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8C58453A-006D-4E69-BBE6-76B2F2EBE094}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Centor" refreshedDate="44637.860835995372" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8C58453A-006D-4E69-BBE6-76B2F2EBE094}">
   <cacheSource type="external" connectionId="5"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Suma de VENTAS]" caption="Suma de VENTAS" numFmtId="0" hierarchy="19" level="32767"/>
     <cacheField name="[Measures].[Suma de COMPRAS]" caption="Suma de COMPRAS" numFmtId="0" hierarchy="20" level="32767"/>
     <cacheField name="[Measures].[Suma de SUELDOS]" caption="Suma de SUELDOS" numFmtId="0" hierarchy="21" level="32767"/>
     <cacheField name="[Rango].[FECHA (año)].[FECHA (año)]" caption="FECHA (año)" numFmtId="0" hierarchy="4" level="1">
-      <sharedItems count="9">
-        <s v="2013"/>
-        <s v="2014"/>
-        <s v="2015"/>
+      <sharedItems count="6">
         <s v="2016"/>
         <s v="2017"/>
         <s v="2018"/>
@@ -557,23 +2131,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{354195F1-2A22-4743-B3E5-DEE22F0D9A41}" name="TablaDinámica1" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fecha">
-  <location ref="A4:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{354195F1-2A22-4743-B3E5-DEE22F0D9A41}" name="TablaDinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Fecha">
+  <location ref="A4:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
+      <items count="6">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -581,7 +2152,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -599,15 +2170,6 @@
     </i>
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -635,6 +2197,35 @@
     <dataField name="Compras" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sueldos" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="22">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -707,8 +2298,13 @@
           </ranges>
         </level>
       </levels>
-      <selections count="1">
-        <selection n="[Rango].[FECHA (año)].[All]"/>
+      <selections count="6">
+        <selection n="[Rango].[FECHA (año)].&amp;[2016]"/>
+        <selection n="[Rango].[FECHA (año)].&amp;[2017]"/>
+        <selection n="[Rango].[FECHA (año)].&amp;[2018]"/>
+        <selection n="[Rango].[FECHA (año)].&amp;[2019]"/>
+        <selection n="[Rango].[FECHA (año)].&amp;[2020]"/>
+        <selection n="[Rango].[FECHA (año)].&amp;[2021]"/>
       </selections>
     </olap>
   </data>
@@ -2559,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40A654A-F51B-4556-A2A9-E9D7BE0F419E}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,24 +4174,24 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" vm="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,13 +4199,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>637344.68039999995</v>
+        <v>850885.52613333345</v>
       </c>
       <c r="C5" s="4">
-        <v>90937.45</v>
+        <v>150262.44333333333</v>
       </c>
       <c r="D5" s="4">
-        <v>43385.386666666658</v>
+        <v>41289.980000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,13 +4213,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>668437.92556666676</v>
+        <v>843624.75480000011</v>
       </c>
       <c r="C6" s="4">
-        <v>100117.97</v>
+        <v>208063.28666666668</v>
       </c>
       <c r="D6" s="4">
-        <v>42281.863333333327</v>
+        <v>59700.659999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,13 +4227,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>737885.58123333333</v>
+        <v>823276.20933333319</v>
       </c>
       <c r="C7" s="4">
-        <v>124491.22</v>
+        <v>478901.16000000003</v>
       </c>
       <c r="D7" s="4">
-        <v>43904.259999999995</v>
+        <v>118537.10666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +4241,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>850885.52613333345</v>
+        <v>775618.76033333328</v>
       </c>
       <c r="C8" s="4">
-        <v>150262.44333333333</v>
+        <v>410629.00666666671</v>
       </c>
       <c r="D8" s="4">
-        <v>41289.980000000003</v>
+        <v>116138.60333333335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,13 +4255,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>843624.75480000011</v>
+        <v>364160.6969333333</v>
       </c>
       <c r="C9" s="4">
-        <v>208063.28666666668</v>
+        <v>256833.45</v>
       </c>
       <c r="D9" s="4">
-        <v>59700.659999999996</v>
+        <v>81552.706666666665</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,69 +4269,27 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>823276.20933333319</v>
+        <v>502844.63913333329</v>
       </c>
       <c r="C10" s="4">
-        <v>478901.16000000003</v>
+        <v>225626.84333333335</v>
       </c>
       <c r="D10" s="4">
-        <v>118537.10666666667</v>
+        <v>91362.13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>775618.76033333328</v>
+        <v>4160410.5866666674</v>
       </c>
       <c r="C11" s="4">
-        <v>410629.00666666671</v>
+        <v>1730316.1899999995</v>
       </c>
       <c r="D11" s="4">
-        <v>116138.60333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>364160.6969333333</v>
-      </c>
-      <c r="C12" s="4">
-        <v>256833.45</v>
-      </c>
-      <c r="D12" s="4">
-        <v>81552.706666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>502844.63913333329</v>
-      </c>
-      <c r="C13" s="4">
-        <v>225626.84333333335</v>
-      </c>
-      <c r="D13" s="4">
-        <v>91362.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6204078.7738666683</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2045862.8299999996</v>
-      </c>
-      <c r="D14" s="4">
-        <v>638152.69666666677</v>
+        <v>508581.1866666667</v>
       </c>
     </row>
   </sheetData>
